--- a/Mifos Automation Excels/Loan Product/2650-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-ACCOUNTCLOSER-PERIODIC-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2650-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-ACCOUNTCLOSER-PERIODIC-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>productname</t>
   </si>
@@ -224,7 +224,10 @@
     <t>Overdue/Due Fee/Int,Principal</t>
   </si>
   <si>
-    <t>2650-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-ACCOUNTCLOSER-PERIODIC</t>
+    <t>2650-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-ACCOUNTCLOSER-PERIODIC-1st</t>
+  </si>
+  <si>
+    <t>265d</t>
   </si>
 </sst>
 </file>
@@ -293,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -311,7 +314,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -626,7 +628,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -639,7 +641,7 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -647,8 +649,8 @@
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>2650</v>
+      <c r="B2" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -679,7 +681,7 @@
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>2</v>
       </c>
     </row>
@@ -836,18 +838,18 @@
       </c>
     </row>
     <row r="26" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="15">
         <v>41640</v>
       </c>
     </row>
@@ -868,7 +870,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B30" s="8">
@@ -1003,7 +1005,7 @@
       <c r="A1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>69</v>
       </c>
     </row>
